--- a/biology/Zoologie/Jean-Baptiste_Huzard/Jean-Baptiste_Huzard.xlsx
+++ b/biology/Zoologie/Jean-Baptiste_Huzard/Jean-Baptiste_Huzard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Huzard, né le 3 novembre 1755 à Paris, où il est mort le 1er décembre 1838, est un vétérinaire français. Il était l’époux de l’éditrice et imprimeuse Rosalie Huzard.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils et petit-fils de maréchaux-ferrants, sa première éducation est peu soignée, d’abord simple apprenti dans l’atelier paternel en même temps que chez les Augustins réformés, et il fait ses études à l’École vétérinaire d’Alfort (1772-1775), enseigne immédiatement et reprend la forge paternelle (malgré l’envie de Claude Bourgelat de le retenir à Alfort). Il reçoit plusieurs fois le prix de pratique de l’école (remportant ainsi une trousse d’instruments, une médaille d’or). Il devient membre titulaire de la Société royale de médecine, fait différents rapports avec Félix Vicq d'Azyr, qui le décide à écrire des articles de médecine vétérinaire pour l’Encyclopédie méthodique. En 1785, il est chargé par le tribunal des Juges et consuls des marchands, puis par d’autres tribunaux, des expertises relatives aux vices rédhibitoires des animaux domestiques, ce jusqu’en 1824, réunissant dans cet intervalle de temps quelque 12 volumes in-folio de rapports et d’actes sur la jurisprudence vétérinaire, en donnant les principes.
 Pendant la Révolution, en 1792, il est nommé membre du conseil vétérinaire et des remontes de l’administration de la guerre. En 1794, il entre à la Commission d’agriculture et des arts, ensuite au sein du Ministère de l’Intérieur sous les titres d’agent, de commissaire du gouvernement, puis d’Inspecteur général des Écoles vétérinaires (jusqu’en 1836), quittant alors son établissement parisien de maréchalerie pour se consacrer à l’administration. 
@@ -520,7 +534,7 @@
 En 1814, lors de l’invasion des armées étrangères, plusieurs élèves d’Alfort sont victimes de leur patriotisme, et d’autres se réfugient auprès d’Huzard. Il n’a de cesse de respecter Philibert Chabert dans sa fonction de directeur de l’école, malgré sa fonction supérieure ; et lorsqu’on propose une place en cette école pour son propre fils, il choisit d’en faire profiter le fils d’une veuve. En 1814, il est décoré de la Légion d’honneur par Louis XVIII, et par le même du cordon de Saint-Michel en 1816.
 En 1829, il participe à la création de l’École vétérinaire de Toulouse. Il possède une bibliothèque de plus de 40 000 volumes (catalogue publié par son fils Huzard fils), avec, en particulier, tous les ouvrages imprimés ou manuscrits rédigés par les membres ou les correspondants de l’Institut. Vers la fin de sa vie, il est chargé de créer deux nouvelles écoles, l’une à Aix-la-Chapelle, l’autre à Zutphen, mais l’affaire est ajournée, et seule la seconde voit le jour, plus tard, sur son plan.
 Membre du comité de la vaccine à sa création, il fut également vice-président de la Société philanthropique et trésorier de la Société centrale d’agriculture. Par son action en tant qu'Inspecteur général des Écoles vétérinaires, par son action administrative comme vétérinaire expert aux tribunaux de commerce parisiens, posant les jalons de la jurisprudence vétérinaire, et par son admission à diverses sociétés savantes, élevant « l’art vétérinaire », selon l’expression consacrée de l’époque, au rang de science, il ouvre la voie vers une plus large reconnaissance du statut du vétérinaire : de simple artisan à la fin du XVIIIe siècle, il peut désormais prétendre au statut de notable.
-Jean-Baptiste Huzard fut un grand bibliophile qui toute sa vie rechercha la piste de tous les ouvrages, manuscrits ou imprimés, consacrés aux sciences naturelles et agricoles, et en particulier à l’équitation. On considère qu’il possédait tout ce qui fut publié avant 1837. Le catalogue de cette collection, établi en 1842, demeure une source irremplaçable de documentation[1].
+Jean-Baptiste Huzard fut un grand bibliophile qui toute sa vie rechercha la piste de tous les ouvrages, manuscrits ou imprimés, consacrés aux sciences naturelles et agricoles, et en particulier à l’équitation. On considère qu’il possédait tout ce qui fut publié avant 1837. Le catalogue de cette collection, établi en 1842, demeure une source irremplaçable de documentation.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Almanach vétérinaire contenant l’histoire abrégée des progrès de la médecine vétérinaire des animaux, depuis l’établissement des écoles vétérinaires en France ; on y a joint la description et le traitement de plusieurs maladies des bestiaux, la notice de quelques ouvrages sur l’art vétérinaire, Paris, 1782, in-12 (avec Pierre Flandrin et Philibert Chabert) ; puis sous le titre Instructions et observations sur les maladies des animaux domestiques, avec les moyens de les guérir, de les préserver, de les conserver en santé, de les multiplier, de les élever avec avantage, et de n’être point trompé dans leur achat, Paris, Mme Huzard ; 3e éd., Paris, 1782-1795 ; éd. en 1806-1809, 6 t. 
 Instruction sur la manière de conduire et de gouverner les vaches laitières, imprimée par ordre du gouvernement, Paris, Impr. royale, 1785, in-8°, 31 p. (1re édition de Philibert Chabert seul) ; 2e éd. (augmentée et corrigée, avec M. Huzard), Paris, M.-R. Huzard, 1797, in-8°, 49 p. ; 3e éd. (augmentée), Paris, Mme Huzard, 1807, in-8°, 84 p.
@@ -588,7 +604,9 @@
           <t>Sources et bibliographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sources anciennes :
 Augustin-François de Silvestre, « Notice biographique sur M. J.-B. Huzard, chevalier des ordres de Saint-Michel et de la Légion d’Honneur, membre de l’Institut, de la Société royale et centrale d’agriculture », Mémoires d’agriculture, d’économie rurale et domestique publiés par la Société royale et centrale d’agriculture, Paris, Mme Huzard,‎ 1839, p. 256–271 [lire en ligne].
